--- a/metadata/dayan_metadata/raw_metadata/cougar/Cougar Fishtrap 2014.xlsx
+++ b/metadata/dayan_metadata/raw_metadata/cougar/Cougar Fishtrap 2014.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/McKenzie_pedigree/mckenzie_2022/metadata/dayan_metadata/raw_metadata/cougar/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FEE3A0-0C32-F54A-BE21-12E3000F062B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15300" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19580" windowHeight="13640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,25 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Floy Tags'!$A$2:$I$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Floy Tags'!$A$1:$I$110</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -559,16 +576,19 @@
   </si>
   <si>
     <t xml:space="preserve">                                                          Cougar Fishtrap 2012</t>
+  </si>
+  <si>
+    <t>753, 754</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +810,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,20 +825,14 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -820,16 +840,24 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -876,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,9 +936,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,6 +988,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1117,34 +1181,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" activeCellId="1" sqref="H91 H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="4"/>
@@ -1159,92 +1223,92 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="B2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="7"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="48" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="U2" s="7"/>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="51"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="51"/>
+      <c r="T3" s="48"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="51"/>
+      <c r="V3" s="48"/>
       <c r="W3" s="6"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1327,7 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1349,7 @@
       <c r="O4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="52"/>
+      <c r="P4" s="49"/>
       <c r="Q4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1295,16 +1359,16 @@
       <c r="S4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="52"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="52"/>
+      <c r="V4" s="49"/>
       <c r="W4" s="6"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>41715</v>
       </c>
@@ -1320,7 +1384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>41718</v>
       </c>
@@ -1336,7 +1400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>41722</v>
       </c>
@@ -1352,7 +1416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>41725</v>
       </c>
@@ -1369,7 +1433,7 @@
       </c>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>41730</v>
       </c>
@@ -1385,7 +1449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>41733</v>
       </c>
@@ -1403,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>41736</v>
       </c>
@@ -1419,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>41739</v>
       </c>
@@ -1435,7 +1499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>41743</v>
       </c>
@@ -1451,7 +1515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>41746</v>
       </c>
@@ -1467,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>41750</v>
       </c>
@@ -1483,7 +1547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>41753</v>
       </c>
@@ -1499,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>41757</v>
       </c>
@@ -1515,7 +1579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>41760</v>
       </c>
@@ -1530,7 +1594,7 @@
       </c>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>41764</v>
       </c>
@@ -1546,7 +1610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>41767</v>
       </c>
@@ -1562,7 +1626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>41771</v>
       </c>
@@ -1578,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>41774</v>
       </c>
@@ -1599,7 +1663,7 @@
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>41778</v>
       </c>
@@ -1615,7 +1679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>41781</v>
       </c>
@@ -1631,7 +1695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>41786</v>
       </c>
@@ -1655,7 +1719,7 @@
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>41788</v>
       </c>
@@ -1671,7 +1735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>41792</v>
       </c>
@@ -1704,7 +1768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>41795</v>
       </c>
@@ -1730,7 +1794,7 @@
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>41799</v>
       </c>
@@ -1763,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>41802</v>
       </c>
@@ -1796,7 +1860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>41806</v>
       </c>
@@ -1822,7 +1886,7 @@
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>41809</v>
       </c>
@@ -1849,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>41813</v>
       </c>
@@ -1878,7 +1942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>41816</v>
       </c>
@@ -1912,7 +1976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="1" customFormat="1">
+    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>41820</v>
       </c>
@@ -1945,7 +2009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="1" customFormat="1">
+    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>41822</v>
       </c>
@@ -1982,7 +2046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="1" customFormat="1">
+    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>41827</v>
       </c>
@@ -2017,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="1" customFormat="1">
+    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>41830</v>
       </c>
@@ -2050,7 +2114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="1" customFormat="1">
+    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>41834</v>
       </c>
@@ -2079,7 +2143,7 @@
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="1:22" s="1" customFormat="1">
+    <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>41837</v>
       </c>
@@ -2111,7 +2175,7 @@
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
-    <row r="41" spans="1:22" s="1" customFormat="1">
+    <row r="41" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>41841</v>
       </c>
@@ -2138,7 +2202,7 @@
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="1:22" s="1" customFormat="1">
+    <row r="42" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>41844</v>
       </c>
@@ -2166,7 +2230,7 @@
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="1:22" s="1" customFormat="1">
+    <row r="43" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>41848</v>
       </c>
@@ -2194,7 +2258,7 @@
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
     </row>
-    <row r="44" spans="1:22" s="1" customFormat="1">
+    <row r="44" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>41851</v>
       </c>
@@ -2217,7 +2281,7 @@
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
     </row>
-    <row r="45" spans="1:22" s="1" customFormat="1">
+    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>41855</v>
       </c>
@@ -2240,7 +2304,7 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
     </row>
-    <row r="46" spans="1:22" s="1" customFormat="1">
+    <row r="46" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>41858</v>
       </c>
@@ -2260,7 +2324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="1" customFormat="1">
+    <row r="47" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>41862</v>
       </c>
@@ -2278,7 +2342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="1" customFormat="1">
+    <row r="48" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>41865</v>
       </c>
@@ -2296,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="1" customFormat="1">
+    <row r="49" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>41869</v>
       </c>
@@ -2314,7 +2378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="1" customFormat="1">
+    <row r="50" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>41872</v>
       </c>
@@ -2332,7 +2396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="1" customFormat="1">
+    <row r="51" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>41876</v>
       </c>
@@ -2362,7 +2426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="23" customFormat="1" ht="15" thickBot="1">
+    <row r="52" spans="1:22" s="23" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>41879</v>
       </c>
@@ -2390,7 +2454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="18" customFormat="1">
+    <row r="53" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>41884</v>
       </c>
@@ -2424,7 +2488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="1" customFormat="1">
+    <row r="54" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>41886</v>
       </c>
@@ -2451,7 +2515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="1" customFormat="1">
+    <row r="55" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>41890</v>
       </c>
@@ -2478,7 +2542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="1" customFormat="1">
+    <row r="56" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>41891</v>
       </c>
@@ -2502,7 +2566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="1" customFormat="1">
+    <row r="57" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>41893</v>
       </c>
@@ -2529,7 +2593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="1" customFormat="1">
+    <row r="58" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>41897</v>
       </c>
@@ -2561,7 +2625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="1" customFormat="1">
+    <row r="59" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>41898</v>
       </c>
@@ -2602,7 +2666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="1" customFormat="1">
+    <row r="60" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>41899</v>
       </c>
@@ -2628,7 +2692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="1" customFormat="1">
+    <row r="61" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>41900</v>
       </c>
@@ -2658,7 +2722,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="1" customFormat="1">
+    <row r="62" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>41904</v>
       </c>
@@ -2693,7 +2757,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="1" customFormat="1">
+    <row r="63" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <v>41905</v>
       </c>
@@ -2721,7 +2785,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="1" customFormat="1">
+    <row r="64" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>41906</v>
       </c>
@@ -2739,7 +2803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="1" customFormat="1">
+    <row r="65" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>41907</v>
       </c>
@@ -2770,7 +2834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="1" customFormat="1">
+    <row r="66" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>41911</v>
       </c>
@@ -2797,7 +2861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:22" s="1" customFormat="1">
+    <row r="67" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>41912</v>
       </c>
@@ -2815,7 +2879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="1" customFormat="1">
+    <row r="68" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>41913</v>
       </c>
@@ -2843,7 +2907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="33" customFormat="1">
+    <row r="69" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>41914</v>
       </c>
@@ -2862,7 +2926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="33" customFormat="1">
+    <row r="70" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>41918</v>
       </c>
@@ -2881,7 +2945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="1" customFormat="1">
+    <row r="71" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>41920</v>
       </c>
@@ -2905,7 +2969,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="33" customFormat="1">
+    <row r="72" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>41921</v>
       </c>
@@ -2924,7 +2988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="33" customFormat="1">
+    <row r="73" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>41926</v>
       </c>
@@ -2943,7 +3007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="33" customFormat="1">
+    <row r="74" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>41927</v>
       </c>
@@ -2962,7 +3026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:22" s="33" customFormat="1">
+    <row r="75" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>41928</v>
       </c>
@@ -2981,7 +3045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="33" customFormat="1">
+    <row r="76" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>41932</v>
       </c>
@@ -3006,7 +3070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="33" customFormat="1">
+    <row r="77" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <v>41934</v>
       </c>
@@ -3029,7 +3093,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="33" customFormat="1">
+    <row r="78" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <v>41935</v>
       </c>
@@ -3048,7 +3112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="33" customFormat="1">
+    <row r="79" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <v>41941</v>
       </c>
@@ -3067,7 +3131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="33" customFormat="1">
+    <row r="80" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>41942</v>
       </c>
@@ -3090,7 +3154,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="33" customFormat="1">
+    <row r="81" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>41946</v>
       </c>
@@ -3113,7 +3177,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="33" customFormat="1">
+    <row r="82" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>41955</v>
       </c>
@@ -3134,7 +3198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="33" customFormat="1">
+    <row r="83" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
         <v>41961</v>
       </c>
@@ -3157,7 +3221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="14" customFormat="1">
+    <row r="84" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="42">
         <v>41968</v>
       </c>
@@ -3175,7 +3239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
         <v>158</v>
       </c>
@@ -3240,7 +3304,7 @@
       </c>
       <c r="S85" s="19"/>
     </row>
-    <row r="86" spans="1:22" s="33" customFormat="1">
+    <row r="86" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="40"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -3261,7 +3325,7 @@
       <c r="R86" s="34"/>
       <c r="S86" s="34"/>
     </row>
-    <row r="87" spans="1:22" s="33" customFormat="1">
+    <row r="87" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="40"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -3284,7 +3348,7 @@
       <c r="R87" s="34"/>
       <c r="S87" s="34"/>
     </row>
-    <row r="88" spans="1:22" s="33" customFormat="1">
+    <row r="88" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="40" t="s">
         <v>169</v>
       </c>
@@ -3327,7 +3391,7 @@
       <c r="R88" s="34"/>
       <c r="S88" s="34"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="40" t="s">
         <v>170</v>
       </c>
@@ -3353,7 +3417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="33" customFormat="1">
+    <row r="90" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="40" t="s">
         <v>159</v>
       </c>
@@ -3386,7 +3450,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="40" t="s">
         <v>160</v>
       </c>
@@ -3417,7 +3481,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="41" t="s">
         <v>161</v>
       </c>
@@ -3438,7 +3502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="33" customFormat="1">
+    <row r="93" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="41" t="s">
         <v>172</v>
       </c>
@@ -3455,20 +3519,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="H94" s="34"/>
     </row>
-    <row r="95" spans="1:22" s="33" customFormat="1">
+    <row r="95" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="H95" s="34"/>
     </row>
-    <row r="96" spans="1:22" s="33" customFormat="1">
+    <row r="96" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="41"/>
       <c r="H96" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="V2:V4"/>
@@ -3477,12 +3547,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3490,202 +3554,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="29"/>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21">
-      <c r="A2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="29">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
         <v>41884</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4">
+      <c r="I3" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>41886</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <v>41886</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -3697,7 +3780,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>107</v>
@@ -3706,484 +3789,484 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>41890</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>41891</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>41893</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="1">
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="1">
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>41897</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="29">
-        <v>41890</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="1">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="1">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="1">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="29">
-        <v>41891</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="29">
-        <v>41893</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="29">
-        <v>41897</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="1">
-        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>47</v>
@@ -4195,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>107</v>
@@ -4204,9 +4287,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>47</v>
@@ -4218,7 +4301,7 @@
         <v>44</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>107</v>
@@ -4227,9 +4310,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>47</v>
@@ -4241,7 +4324,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>107</v>
@@ -4250,426 +4333,426 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>41898</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
         <v>6</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="1">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="1">
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="1">
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="1">
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="1">
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
         <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="1">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="1">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="1">
-        <v>14</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="29">
-        <v>41898</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="1">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="1">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="1">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="1">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="1">
-        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>42</v>
@@ -4681,7 +4764,7 @@
         <v>49</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>108</v>
@@ -4690,58 +4773,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>48</v>
+      <c r="D52" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="1">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="I53" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>48</v>
@@ -4750,7 +4833,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>108</v>
@@ -4759,55 +4842,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="D56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I55" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="1">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I56" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>47</v>
@@ -4819,7 +4902,7 @@
         <v>44</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>108</v>
@@ -4828,242 +4911,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>22</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" s="15" t="s">
+      <c r="E67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I58" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="1">
-        <v>18</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="1">
-        <v>19</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I60" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="1">
-        <v>20</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="1">
-        <v>21</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I62" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="1">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I63" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="1">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I64" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="B65" s="1">
-        <v>24</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="1">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I66" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="1">
-        <v>26</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I67" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>42</v>
@@ -5075,7 +5158,7 @@
         <v>44</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>108</v>
@@ -5084,32 +5167,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>91</v>
+      <c r="D69" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>108</v>
+      <c r="F69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I69" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>42</v>
@@ -5121,7 +5204,7 @@
         <v>44</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>107</v>
@@ -5130,12 +5213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>48</v>
@@ -5144,7 +5227,7 @@
         <v>44</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>107</v>
@@ -5153,9 +5236,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>47</v>
@@ -5164,24 +5247,24 @@
         <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I72" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>48</v>
@@ -5190,7 +5273,7 @@
         <v>49</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>108</v>
@@ -5199,9 +5282,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>42</v>
@@ -5210,122 +5293,123 @@
         <v>48</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="29">
+        <v>41899</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="29">
+        <v>41900</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I74" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="B75" s="1">
-        <v>34</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I75" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="29">
-        <v>41899</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I76" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="B77">
+      <c r="I78" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="29"/>
+      <c r="B79" s="1">
         <v>2</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I77" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I78" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="1" customFormat="1">
-      <c r="A79" s="29">
-        <v>41900</v>
-      </c>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>48</v>
@@ -5334,7 +5418,7 @@
         <v>49</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>108</v>
@@ -5343,10 +5427,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1">
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="29"/>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>42</v>
@@ -5358,7 +5442,7 @@
         <v>49</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>108</v>
@@ -5367,269 +5451,268 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="1">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="29">
+        <v>41904</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
         <v>3</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I84" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I85" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="F86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I81" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="29">
-        <v>41904</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I82" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I83" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="B84" s="1">
-        <v>3</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I84" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="B85" s="1">
-        <v>4</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I85" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="B86" s="1">
-        <v>5</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="31">
-        <v>753754</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I86" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="F88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I87" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="B88" s="1">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I88" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I89" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="B90" s="1">
-        <v>9</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I90" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="B91" s="1">
-        <v>10</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I91" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>42</v>
@@ -5641,7 +5724,7 @@
         <v>44</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H92" s="37" t="s">
         <v>108</v>
@@ -5650,9 +5733,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>42</v>
@@ -5664,7 +5747,7 @@
         <v>44</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H93" s="37" t="s">
         <v>108</v>
@@ -5673,9 +5756,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>42</v>
@@ -5687,7 +5770,7 @@
         <v>44</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="H94" s="37" t="s">
         <v>108</v>
@@ -5696,12 +5779,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>91</v>
@@ -5710,7 +5793,7 @@
         <v>44</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H95" s="37" t="s">
         <v>108</v>
@@ -5719,12 +5802,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>91</v>
@@ -5732,8 +5815,8 @@
       <c r="E96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F96" s="15" t="s">
-        <v>111</v>
+      <c r="F96" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="H96" s="37" t="s">
         <v>108</v>
@@ -5742,134 +5825,134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="29">
+        <v>41905</v>
+      </c>
       <c r="B97" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I99" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="29">
+        <v>41907</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H97" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I97" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="29">
-        <v>41905</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I98" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I100" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="29">
-        <v>41907</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I101" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D102" s="1" t="s">
         <v>48</v>
       </c>
@@ -5877,7 +5960,7 @@
         <v>44</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>107</v>
@@ -5886,9 +5969,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>47</v>
@@ -5900,7 +5983,7 @@
         <v>44</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>107</v>
@@ -5909,12 +5992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="29">
+        <v>41911</v>
+      </c>
       <c r="B104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>48</v>
@@ -5923,7 +6009,10 @@
         <v>44</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>107</v>
@@ -5932,15 +6021,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="29">
-        <v>41911</v>
-      </c>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>48</v>
@@ -5949,10 +6035,7 @@
         <v>44</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>107</v>
@@ -5961,85 +6044,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I106" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="29">
+        <v>41913</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I107" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B108">
         <v>2</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I106" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="B107">
+      <c r="C108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I108" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I107" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="29">
-        <v>41913</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I108" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="B109">
-        <v>2</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>42</v>
       </c>
@@ -6050,7 +6133,7 @@
         <v>44</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>107</v>
@@ -6059,82 +6142,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="29">
+        <v>41920</v>
+      </c>
       <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H110" s="33" t="s">
         <v>107</v>
       </c>
       <c r="I110" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="29">
-        <v>41920</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F111" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H111" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I111" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9">
-      <c r="I113">
-        <f>SUBTOTAL(9,I3:I111)</f>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <f>SUBTOTAL(9,I2:I110)</f>
         <v>109</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I110" xr:uid="{D594E8D0-1808-2640-8945-3CCAE49701E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -6148,23 +6209,23 @@
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="54" t="s">
         <v>1</v>
@@ -6184,7 +6245,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="54" t="s">
         <v>8</v>
@@ -6206,7 +6267,7 @@
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="45" t="s">
         <v>12</v>
@@ -6232,7 +6293,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -6246,7 +6307,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>158</v>
       </c>
@@ -6276,7 +6337,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -6290,7 +6351,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -6306,7 +6367,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>169</v>
       </c>
@@ -6336,7 +6397,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>170</v>
       </c>
@@ -6364,7 +6425,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>159</v>
       </c>
@@ -6394,7 +6455,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>160</v>
       </c>
@@ -6424,7 +6485,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>161</v>
       </c>
@@ -6448,7 +6509,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>172</v>
       </c>
@@ -6468,7 +6529,7 @@
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -6482,7 +6543,7 @@
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -6496,7 +6557,7 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -6510,7 +6571,7 @@
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -6524,7 +6585,7 @@
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -6538,7 +6599,7 @@
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -6552,23 +6613,23 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="55" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="53" t="s">
         <v>1</v>
@@ -6588,7 +6649,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="54" t="s">
         <v>8</v>
@@ -6610,7 +6671,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="45" t="s">
         <v>12</v>
@@ -6636,7 +6697,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -6650,7 +6711,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>158</v>
       </c>
@@ -6680,7 +6741,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -6694,7 +6755,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>159</v>
       </c>
@@ -6724,7 +6785,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>160</v>
       </c>
@@ -6754,7 +6815,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>161</v>
       </c>
@@ -6774,7 +6835,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>176</v>
       </c>
@@ -6792,7 +6853,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -6806,7 +6867,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -6820,35 +6881,35 @@
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="58" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
-      <c r="B36" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51" t="s">
+      <c r="B36" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="48" t="s">
         <v>3</v>
       </c>
       <c r="I36" s="33"/>
@@ -6856,29 +6917,29 @@
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="43" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="51"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="44" t="s">
         <v>12</v>
@@ -6898,13 +6959,13 @@
       <c r="G38" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
         <v>178</v>
       </c>
@@ -6936,6 +6997,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -6947,12 +7014,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:H38"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
